--- a/yieldFiles/A1/a1_det6.xlsx
+++ b/yieldFiles/A1/a1_det6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C716"/>
+  <dimension ref="A1:C857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,10 +2407,10 @@
         <v>2.48496</v>
       </c>
       <c r="B186" t="n">
-        <v>8.512787699999999e-13</v>
+        <v>4.2985665e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>1.081521414e-14</v>
+        <v>6.901640280000001e-15</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>2.48496</v>
       </c>
       <c r="B187" t="n">
-        <v>4.2985665e-13</v>
+        <v>8.512787699999999e-13</v>
       </c>
       <c r="C187" t="n">
-        <v>6.901640280000001e-15</v>
+        <v>1.081521414e-14</v>
       </c>
     </row>
     <row r="188">
@@ -3661,10 +3661,10 @@
         <v>2.71393</v>
       </c>
       <c r="B300" t="n">
-        <v>2.4601914e-13</v>
+        <v>2.49360912e-13</v>
       </c>
       <c r="C300" t="n">
-        <v>8.479434060000001e-15</v>
+        <v>6.6275541e-15</v>
       </c>
     </row>
     <row r="301">
@@ -3672,10 +3672,10 @@
         <v>2.71393</v>
       </c>
       <c r="B301" t="n">
-        <v>2.49360912e-13</v>
+        <v>2.4601914e-13</v>
       </c>
       <c r="C301" t="n">
-        <v>6.6275541e-15</v>
+        <v>8.479434060000001e-15</v>
       </c>
     </row>
     <row r="302">
@@ -5572,2675 +5572,4226 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B474" t="n">
-        <v>1.53165618e-13</v>
+        <v>1.99639638e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>6.801258960000001e-15</v>
+        <v>5.96459844e-15</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B475" t="n">
-        <v>1.299281274e-13</v>
+        <v>1.53165618e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>7.915321799999999e-15</v>
+        <v>6.801258960000001e-15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B476" t="n">
-        <v>2.7540783e-13</v>
+        <v>1.299281274e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>7.68963204e-15</v>
+        <v>7.915321799999999e-15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B477" t="n">
-        <v>2.08248786e-13</v>
+        <v>3.64189068e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>8.5651731e-15</v>
+        <v>1.71423612e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B478" t="n">
-        <v>2.51574876e-13</v>
+        <v>2.7540783e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>9.214207380000001e-15</v>
+        <v>7.68963204e-15</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B479" t="n">
-        <v>3.45266244e-13</v>
+        <v>2.08248786e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>1.081532628e-14</v>
+        <v>8.5651731e-15</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B480" t="n">
-        <v>3.34439928e-13</v>
+        <v>2.51574876e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>1.163614302e-14</v>
+        <v>9.214207380000001e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B481" t="n">
-        <v>3.38539446e-13</v>
+        <v>3.45266244e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.055400804e-14</v>
+        <v>1.081532628e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B482" t="n">
-        <v>3.5674938e-13</v>
+        <v>3.83432292e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>1.196583462e-14</v>
+        <v>1.481117886e-14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B483" t="n">
-        <v>3.29244642e-13</v>
+        <v>3.34439928e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>1.36692252e-14</v>
+        <v>1.163614302e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B484" t="n">
-        <v>3.77996706e-13</v>
+        <v>3.38539446e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>1.063002294e-14</v>
+        <v>1.055400804e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B485" t="n">
-        <v>3.52861326e-13</v>
+        <v>3.5674938e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>1.200647736e-14</v>
+        <v>1.196583462e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B486" t="n">
-        <v>3.53284254e-13</v>
+        <v>3.29244642e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>1.231266762e-14</v>
+        <v>1.36692252e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B487" t="n">
-        <v>2.5400511e-13</v>
+        <v>3.20313492e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>8.225805419999999e-15</v>
+        <v>2.1773583e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B488" t="n">
-        <v>2.75622498e-13</v>
+        <v>3.77996706e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>1.306248372e-14</v>
+        <v>1.063002294e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B489" t="n">
-        <v>2.00761038e-13</v>
+        <v>3.52861326e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>1.091665278e-14</v>
+        <v>1.200647736e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B490" t="n">
-        <v>1.555171938e-13</v>
+        <v>3.53284254e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>5.060061180000001e-15</v>
+        <v>1.231266762e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B491" t="n">
-        <v>1.76490738e-13</v>
+        <v>2.5400511e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>3.9507723e-15</v>
+        <v>8.225805419999999e-15</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B492" t="n">
-        <v>1.418615856e-13</v>
+        <v>2.75622498e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>5.4479214e-15</v>
+        <v>1.306248372e-14</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B493" t="n">
-        <v>2.215598040000001e-13</v>
+        <v>2.25947682e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>8.324760960000001e-15</v>
+        <v>1.19786346e-14</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.8748</v>
       </c>
       <c r="B494" t="n">
-        <v>3.08896038e-13</v>
+        <v>2.0110707e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>1.173676464e-14</v>
+        <v>1.89819378e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B495" t="n">
-        <v>2.58831936e-13</v>
+        <v>2.00761038e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>6.87884382e-15</v>
+        <v>1.091665278e-14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87584</v>
       </c>
       <c r="B496" t="n">
-        <v>1.71583812e-13</v>
+        <v>1.555171938e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>5.55679332e-15</v>
+        <v>5.060061180000001e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87591</v>
       </c>
       <c r="B497" t="n">
-        <v>1.018897632e-13</v>
+        <v>1.60437096e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>7.800490439999999e-15</v>
+        <v>1.325051046e-14</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B498" t="n">
-        <v>6.52219056e-14</v>
+        <v>1.76490738e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>4.18753188e-15</v>
+        <v>3.9507723e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87685</v>
       </c>
       <c r="B499" t="n">
-        <v>1.7207883e-13</v>
+        <v>1.71713574e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>6.4675944e-15</v>
+        <v>1.7219898e-14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87699</v>
       </c>
       <c r="B500" t="n">
-        <v>3.019641840000001e-13</v>
+        <v>1.418615856e-13</v>
       </c>
       <c r="C500" t="n">
-        <v>9.173003940000001e-15</v>
+        <v>5.4479214e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87795</v>
       </c>
       <c r="B501" t="n">
-        <v>1.511624772e-12</v>
+        <v>2.215598040000001e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>3.50294922e-14</v>
+        <v>8.324760960000001e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87802</v>
       </c>
       <c r="B502" t="n">
-        <v>2.411811e-12</v>
+        <v>3.32777052e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>3.51060678e-14</v>
+        <v>9.614242799999999e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B503" t="n">
-        <v>2.23860276e-12</v>
+        <v>1.9446678e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>2.36658654e-14</v>
+        <v>1.260626616e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B504" t="n">
-        <v>1.285846902e-12</v>
+        <v>2.58831936e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>3.24239994e-14</v>
+        <v>6.87884382e-15</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87894</v>
       </c>
       <c r="B505" t="n">
-        <v>2.34803538e-12</v>
+        <v>3.08896038e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>3.44719962e-14</v>
+        <v>1.173676464e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.87999</v>
       </c>
       <c r="B506" t="n">
-        <v>1.424278926e-12</v>
+        <v>1.71583812e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>3.59251704e-14</v>
+        <v>5.55679332e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88082</v>
       </c>
       <c r="B507" t="n">
-        <v>6.254095860000001e-13</v>
+        <v>1.018897632e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>1.63065978e-14</v>
+        <v>7.800490439999999e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88098</v>
       </c>
       <c r="B508" t="n">
-        <v>3.7803996e-13</v>
+        <v>1.022253822e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>8.091685980000001e-15</v>
+        <v>1.11809988e-14</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.88879</v>
       </c>
       <c r="B509" t="n">
-        <v>2.629522799999999e-13</v>
+        <v>6.52219056e-14</v>
       </c>
       <c r="C509" t="n">
-        <v>8.67180222e-15</v>
+        <v>4.18753188e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90444</v>
       </c>
       <c r="B510" t="n">
-        <v>1.98196236e-13</v>
+        <v>1.7207883e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>5.470413480000001e-15</v>
+        <v>6.4675944e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90481</v>
       </c>
       <c r="B511" t="n">
-        <v>1.63634688e-13</v>
+        <v>3.019641840000001e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>4.841628480000001e-15</v>
+        <v>9.173003940000001e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90576</v>
       </c>
       <c r="B512" t="n">
-        <v>1.305479412e-13</v>
+        <v>1.511624772e-12</v>
       </c>
       <c r="C512" t="n">
-        <v>4.452839099999999e-15</v>
+        <v>3.50294922e-14</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B513" t="n">
-        <v>1.24053273e-13</v>
+        <v>2.411811e-12</v>
       </c>
       <c r="C513" t="n">
-        <v>4.51220922e-15</v>
+        <v>3.51060678e-14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90595</v>
       </c>
       <c r="B514" t="n">
-        <v>1.014735636e-13</v>
+        <v>2.23860276e-12</v>
       </c>
       <c r="C514" t="n">
-        <v>3.841355700000001e-15</v>
+        <v>2.36658654e-14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90644</v>
       </c>
       <c r="B515" t="n">
-        <v>7.45014906e-14</v>
+        <v>1.285846902e-12</v>
       </c>
       <c r="C515" t="n">
-        <v>3.78238608e-15</v>
+        <v>3.24239994e-14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90675</v>
       </c>
       <c r="B516" t="n">
-        <v>7.12779462e-14</v>
+        <v>2.34803538e-12</v>
       </c>
       <c r="C516" t="n">
-        <v>3.2139324e-15</v>
+        <v>3.44719962e-14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90706</v>
       </c>
       <c r="B517" t="n">
-        <v>8.353805219999999e-14</v>
+        <v>1.424278926e-12</v>
       </c>
       <c r="C517" t="n">
-        <v>3.47271948e-15</v>
+        <v>3.59251704e-14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90739</v>
       </c>
       <c r="B518" t="n">
-        <v>1.39427667e-13</v>
+        <v>6.254095860000001e-13</v>
       </c>
       <c r="C518" t="n">
-        <v>5.51615058e-15</v>
+        <v>1.63065978e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90788</v>
       </c>
       <c r="B519" t="n">
-        <v>3.968826840000001e-13</v>
+        <v>3.7803996e-13</v>
       </c>
       <c r="C519" t="n">
-        <v>9.26039304e-15</v>
+        <v>8.091685980000001e-15</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.9085</v>
       </c>
       <c r="B520" t="n">
-        <v>1.55302686e-12</v>
+        <v>2.629522799999999e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>2.23539876e-14</v>
+        <v>8.67180222e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90904</v>
       </c>
       <c r="B521" t="n">
-        <v>1.75095396e-12</v>
+        <v>1.98196236e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>1.99189476e-14</v>
+        <v>5.470413480000001e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.90949</v>
       </c>
       <c r="B522" t="n">
-        <v>1.463973282e-12</v>
+        <v>1.63634688e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>2.63714832e-14</v>
+        <v>4.841628480000001e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91001</v>
       </c>
       <c r="B523" t="n">
-        <v>9.936340920000001e-13</v>
+        <v>1.305479412e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>1.85282514e-14</v>
+        <v>4.452839099999999e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91027</v>
       </c>
       <c r="B524" t="n">
-        <v>5.892892920000001e-13</v>
+        <v>1.24053273e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>1.316092662e-14</v>
+        <v>4.51220922e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.9115</v>
       </c>
       <c r="B525" t="n">
-        <v>2.5370874e-13</v>
+        <v>1.014735636e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>6.58599822e-15</v>
+        <v>3.841355700000001e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91247</v>
       </c>
       <c r="B526" t="n">
-        <v>1.98417312e-13</v>
+        <v>7.45014906e-14</v>
       </c>
       <c r="C526" t="n">
-        <v>5.13316044e-15</v>
+        <v>3.78238608e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91341</v>
       </c>
       <c r="B527" t="n">
-        <v>1.121382378e-13</v>
+        <v>7.12779462e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>2.62194534e-15</v>
+        <v>3.2139324e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91393</v>
       </c>
       <c r="B528" t="n">
-        <v>9.23589846e-14</v>
+        <v>8.353805219999999e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>3.6753885e-15</v>
+        <v>3.47271948e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91445</v>
       </c>
       <c r="B529" t="n">
-        <v>7.303437900000001e-14</v>
+        <v>1.39427667e-13</v>
       </c>
       <c r="C529" t="n">
-        <v>2.16329274e-15</v>
+        <v>5.51615058e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91504</v>
       </c>
       <c r="B530" t="n">
-        <v>6.49280988e-14</v>
+        <v>3.968826840000001e-13</v>
       </c>
       <c r="C530" t="n">
-        <v>2.22160554e-15</v>
+        <v>9.26039304e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91537</v>
       </c>
       <c r="B531" t="n">
-        <v>5.54538708e-14</v>
+        <v>1.55302686e-12</v>
       </c>
       <c r="C531" t="n">
-        <v>1.87030296e-15</v>
+        <v>2.23539876e-14</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91549</v>
       </c>
       <c r="B532" t="n">
-        <v>4.66020198e-14</v>
+        <v>1.75095396e-12</v>
       </c>
       <c r="C532" t="n">
-        <v>1.97089254e-15</v>
+        <v>1.99189476e-14</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91566</v>
       </c>
       <c r="B533" t="n">
-        <v>4.71558312e-14</v>
+        <v>1.463973282e-12</v>
       </c>
       <c r="C533" t="n">
-        <v>2.15174232e-15</v>
+        <v>2.63714832e-14</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91585</v>
       </c>
       <c r="B534" t="n">
-        <v>4.68902196e-14</v>
+        <v>9.936340920000001e-13</v>
       </c>
       <c r="C534" t="n">
-        <v>2.27918142e-15</v>
+        <v>1.85282514e-14</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91604</v>
       </c>
       <c r="B535" t="n">
-        <v>4.24232028e-14</v>
+        <v>5.892892920000001e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>1.92225582e-15</v>
+        <v>1.316092662e-14</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91648</v>
       </c>
       <c r="B536" t="n">
-        <v>3.76665444e-14</v>
+        <v>2.5370874e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>2.04921432e-15</v>
+        <v>6.58599822e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91693</v>
       </c>
       <c r="B537" t="n">
-        <v>3.80857878e-14</v>
+        <v>1.98417312e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>1.95336666e-15</v>
+        <v>5.13316044e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91745</v>
       </c>
       <c r="B538" t="n">
-        <v>3.54633138e-14</v>
+        <v>1.121382378e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>2.1718314e-15</v>
+        <v>2.62194534e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91793</v>
       </c>
       <c r="B539" t="n">
-        <v>3.26524446e-14</v>
+        <v>9.23589846e-14</v>
       </c>
       <c r="C539" t="n">
-        <v>2.31383268e-15</v>
+        <v>3.6753885e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.9184</v>
       </c>
       <c r="B540" t="n">
-        <v>3.9796884e-14</v>
+        <v>7.303437900000001e-14</v>
       </c>
       <c r="C540" t="n">
-        <v>2.17298484e-15</v>
+        <v>2.16329274e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91892</v>
       </c>
       <c r="B541" t="n">
-        <v>3.6690606e-14</v>
+        <v>6.49280988e-14</v>
       </c>
       <c r="C541" t="n">
-        <v>2.29098816e-15</v>
+        <v>2.22160554e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91946</v>
       </c>
       <c r="B542" t="n">
-        <v>5.40872046e-14</v>
+        <v>5.54538708e-14</v>
       </c>
       <c r="C542" t="n">
-        <v>2.52319806e-15</v>
+        <v>1.87030296e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.91991</v>
       </c>
       <c r="B543" t="n">
-        <v>1.248891966e-13</v>
+        <v>4.66020198e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>3.5213562e-15</v>
+        <v>1.97089254e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92043</v>
       </c>
       <c r="B544" t="n">
-        <v>1.296593118e-13</v>
+        <v>4.71558312e-14</v>
       </c>
       <c r="C544" t="n">
-        <v>3.63009996e-15</v>
+        <v>2.15174232e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92084</v>
       </c>
       <c r="B545" t="n">
-        <v>9.7508934e-14</v>
+        <v>4.68902196e-14</v>
       </c>
       <c r="C545" t="n">
-        <v>2.85864084e-15</v>
+        <v>2.27918142e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92143</v>
       </c>
       <c r="B546" t="n">
-        <v>1.063377162e-13</v>
+        <v>4.24232028e-14</v>
       </c>
       <c r="C546" t="n">
-        <v>3.44311452e-15</v>
+        <v>1.92225582e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.9219</v>
       </c>
       <c r="B547" t="n">
-        <v>1.461571884e-13</v>
+        <v>3.76665444e-14</v>
       </c>
       <c r="C547" t="n">
-        <v>4.00461552e-15</v>
+        <v>2.04921432e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92247</v>
       </c>
       <c r="B548" t="n">
-        <v>2.63490552e-13</v>
+        <v>3.80857878e-14</v>
       </c>
       <c r="C548" t="n">
-        <v>9.177841979999999e-15</v>
+        <v>1.95336666e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92297</v>
       </c>
       <c r="B549" t="n">
-        <v>2.95279038e-13</v>
+        <v>3.54633138e-14</v>
       </c>
       <c r="C549" t="n">
-        <v>7.499923200000001e-15</v>
+        <v>2.1718314e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92346</v>
       </c>
       <c r="B550" t="n">
-        <v>4.05975636e-13</v>
+        <v>3.26524446e-14</v>
       </c>
       <c r="C550" t="n">
-        <v>8.413479719999999e-15</v>
+        <v>2.31383268e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92583</v>
       </c>
       <c r="B551" t="n">
-        <v>6.096683339999997e-13</v>
+        <v>3.9796884e-14</v>
       </c>
       <c r="C551" t="n">
-        <v>1.146488922e-14</v>
+        <v>2.17298484e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.92979</v>
       </c>
       <c r="B552" t="n">
-        <v>8.362215719999999e-13</v>
+        <v>3.6690606e-14</v>
       </c>
       <c r="C552" t="n">
-        <v>1.087456824e-14</v>
+        <v>2.29098816e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.93966</v>
       </c>
       <c r="B553" t="n">
-        <v>1.043107056e-12</v>
+        <v>5.40872046e-14</v>
       </c>
       <c r="C553" t="n">
-        <v>1.65451356e-14</v>
+        <v>2.52319806e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.95006</v>
       </c>
       <c r="B554" t="n">
-        <v>1.112438412e-12</v>
+        <v>1.248891966e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>1.71396378e-14</v>
+        <v>3.5213562e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.9597</v>
       </c>
       <c r="B555" t="n">
-        <v>1.197458154e-12</v>
+        <v>1.296593118e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>1.77216444e-14</v>
+        <v>3.63009996e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.96984</v>
       </c>
       <c r="B556" t="n">
-        <v>1.259678232e-12</v>
+        <v>9.7508934e-14</v>
       </c>
       <c r="C556" t="n">
-        <v>1.60819974e-14</v>
+        <v>2.85864084e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97074</v>
       </c>
       <c r="B557" t="n">
-        <v>1.309237704e-12</v>
+        <v>1.153813266e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.89002358e-14</v>
+        <v>8.08792128e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.97979</v>
       </c>
       <c r="B558" t="n">
-        <v>1.353520188e-12</v>
+        <v>1.063377162e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>1.61143578e-14</v>
+        <v>3.44311452e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98023</v>
       </c>
       <c r="B559" t="n">
-        <v>1.343416374e-12</v>
+        <v>1.056557448e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.8004878e-14</v>
+        <v>6.17670324e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.98967</v>
       </c>
       <c r="B560" t="n">
-        <v>1.376154846e-12</v>
+        <v>1.461571884e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>1.78103952e-14</v>
+        <v>4.00461552e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99092</v>
       </c>
       <c r="B561" t="n">
-        <v>1.332996966e-12</v>
+        <v>1.93526406e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.75958874e-14</v>
+        <v>8.63144784e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99494</v>
       </c>
       <c r="B562" t="n">
-        <v>1.156165002e-12</v>
+        <v>2.327033159999999e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.552688838e-14</v>
+        <v>1.059964902e-14</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99885</v>
       </c>
       <c r="B563" t="n">
-        <v>1.02102669e-12</v>
+        <v>2.63490552e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.7280774e-14</v>
+        <v>9.177841979999999e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.9989</v>
       </c>
       <c r="B564" t="n">
-        <v>8.556346079999999e-13</v>
+        <v>2.82637656e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>1.261656702e-14</v>
+        <v>1.31866227e-14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99991</v>
       </c>
       <c r="B565" t="n">
-        <v>7.53313266e-13</v>
+        <v>3.09232458e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>1.154646306e-14</v>
+        <v>1.134946512e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.0165</v>
+        <v>2.99993</v>
       </c>
       <c r="B566" t="n">
-        <v>6.63231204e-13</v>
+        <v>2.95279038e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>1.180939932e-14</v>
+        <v>7.499923200000001e-15</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00139</v>
       </c>
       <c r="B567" t="n">
-        <v>5.94329184e-13</v>
+        <v>3.57154686e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>9.480107340000001e-15</v>
+        <v>8.1649935e-15</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00252</v>
       </c>
       <c r="B568" t="n">
-        <v>5.26711968e-13</v>
+        <v>3.87970758e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>8.025491339999999e-15</v>
+        <v>9.91364058e-15</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00336</v>
       </c>
       <c r="B569" t="n">
-        <v>4.673130119999999e-13</v>
+        <v>4.164943680000001e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>8.29935324e-15</v>
+        <v>1.328367186e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00403</v>
       </c>
       <c r="B570" t="n">
-        <v>4.4067015e-13</v>
+        <v>4.05975636e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>1.050865542e-14</v>
+        <v>8.413479719999999e-15</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00434</v>
       </c>
       <c r="B571" t="n">
-        <v>4.04706852e-13</v>
+        <v>4.27320684e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>1.068952122e-14</v>
+        <v>1.361055996e-14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.0055</v>
       </c>
       <c r="B572" t="n">
-        <v>3.57274836e-13</v>
+        <v>5.24283336e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>1.081997208e-14</v>
+        <v>9.77373792e-15</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00638</v>
       </c>
       <c r="B573" t="n">
-        <v>2.94740766e-13</v>
+        <v>5.35122468e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>9.92253168e-15</v>
+        <v>9.78258096e-15</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00754</v>
       </c>
       <c r="B574" t="n">
-        <v>2.39473368e-13</v>
+        <v>6.2033445e-13</v>
       </c>
       <c r="C574" t="n">
-        <v>8.837673300000001e-15</v>
+        <v>9.575842860000001e-15</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00807</v>
       </c>
       <c r="B575" t="n">
-        <v>2.14525422e-13</v>
+        <v>6.096683339999997e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>8.32082004e-15</v>
+        <v>1.146488922e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00843</v>
       </c>
       <c r="B576" t="n">
-        <v>2.4913503e-13</v>
+        <v>6.90707106e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>6.81968196e-15</v>
+        <v>1.091135016e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.033</v>
+        <v>3.00955</v>
       </c>
       <c r="B577" t="n">
-        <v>2.73799422e-13</v>
+        <v>8.30374272e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>9.435027060000001e-15</v>
+        <v>1.34101818e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01001</v>
       </c>
       <c r="B578" t="n">
-        <v>3.20154894e-13</v>
+        <v>8.362215719999999e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>9.75047688e-15</v>
+        <v>1.087456824e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01047</v>
       </c>
       <c r="B579" t="n">
-        <v>4.0962339e-13</v>
+        <v>1.006309116e-12</v>
       </c>
       <c r="C579" t="n">
-        <v>9.403611839999999e-15</v>
+        <v>1.264392918e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01128</v>
       </c>
       <c r="B580" t="n">
-        <v>6.041366280000001e-13</v>
+        <v>1.043107056e-12</v>
       </c>
       <c r="C580" t="n">
-        <v>9.186620939999999e-15</v>
+        <v>1.65451356e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01174</v>
       </c>
       <c r="B581" t="n">
-        <v>9.265070880000002e-13</v>
+        <v>1.112438412e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>1.44123129e-14</v>
+        <v>1.71396378e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01205</v>
       </c>
       <c r="B582" t="n">
-        <v>1.69084692e-12</v>
+        <v>1.197458154e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>2.29564998e-14</v>
+        <v>1.77216444e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01229</v>
       </c>
       <c r="B583" t="n">
-        <v>2.33767044e-12</v>
+        <v>1.259678232e-12</v>
       </c>
       <c r="C583" t="n">
-        <v>2.69163234e-14</v>
+        <v>1.60819974e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01249</v>
       </c>
       <c r="B584" t="n">
-        <v>9.866525760000003e-13</v>
+        <v>1.309237704e-12</v>
       </c>
       <c r="C584" t="n">
-        <v>1.68277284e-14</v>
+        <v>1.89002358e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01268</v>
       </c>
       <c r="B585" t="n">
-        <v>4.58694252e-13</v>
+        <v>1.353520188e-12</v>
       </c>
       <c r="C585" t="n">
-        <v>1.185459174e-14</v>
+        <v>1.61143578e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01299</v>
       </c>
       <c r="B586" t="n">
-        <v>3.60635832e-13</v>
+        <v>1.343416374e-12</v>
       </c>
       <c r="C586" t="n">
-        <v>1.105426458e-14</v>
+        <v>1.8004878e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01352</v>
       </c>
       <c r="B587" t="n">
-        <v>3.343197780000001e-13</v>
+        <v>1.376154846e-12</v>
       </c>
       <c r="C587" t="n">
-        <v>1.083926016e-14</v>
+        <v>1.78103952e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01388</v>
       </c>
       <c r="B588" t="n">
-        <v>3.3719697e-13</v>
+        <v>1.332996966e-12</v>
       </c>
       <c r="C588" t="n">
-        <v>8.558284500000001e-15</v>
+        <v>1.75958874e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01436</v>
       </c>
       <c r="B589" t="n">
-        <v>3.294513e-13</v>
+        <v>1.156165002e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>9.754417799999999e-15</v>
+        <v>1.552688838e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01441</v>
       </c>
       <c r="B590" t="n">
-        <v>3.23990082e-13</v>
+        <v>9.1196253e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>1.102070268e-14</v>
+        <v>1.71769644e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01501</v>
       </c>
       <c r="B591" t="n">
-        <v>2.41078572e-13</v>
+        <v>1.02102669e-12</v>
       </c>
       <c r="C591" t="n">
-        <v>9.257285159999999e-15</v>
+        <v>1.7280774e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01551</v>
       </c>
       <c r="B592" t="n">
-        <v>2.11483224e-13</v>
+        <v>8.556346079999999e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>9.063667439999999e-15</v>
+        <v>1.261656702e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01607</v>
       </c>
       <c r="B593" t="n">
-        <v>2.06491392e-13</v>
+        <v>7.53313266e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>8.829358919999999e-15</v>
+        <v>1.154646306e-14</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.0165</v>
       </c>
       <c r="B594" t="n">
-        <v>2.19975426e-13</v>
+        <v>6.63231204e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>8.6624145e-15</v>
+        <v>1.180939932e-14</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01703</v>
       </c>
       <c r="B595" t="n">
-        <v>2.413829520000001e-13</v>
+        <v>5.94329184e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>9.822470760000001e-15</v>
+        <v>9.480107340000001e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01753</v>
       </c>
       <c r="B596" t="n">
-        <v>2.6831898e-13</v>
+        <v>5.26711968e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>1.04645043e-14</v>
+        <v>8.025491339999999e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01809</v>
       </c>
       <c r="B597" t="n">
-        <v>2.77158816e-13</v>
+        <v>4.673130119999999e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>1.044508806e-14</v>
+        <v>8.29935324e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01852</v>
       </c>
       <c r="B598" t="n">
-        <v>2.577618e-13</v>
+        <v>3.89729754e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>1.028554488e-14</v>
+        <v>1.122628734e-14</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01857</v>
       </c>
       <c r="B599" t="n">
-        <v>2.80697634e-13</v>
+        <v>4.4067015e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>1.114178184e-14</v>
+        <v>1.050865542e-14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.062</v>
+        <v>3.01898</v>
       </c>
       <c r="B600" t="n">
-        <v>2.82030498e-13</v>
+        <v>4.04706852e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>1.088683956e-14</v>
+        <v>1.068952122e-14</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02004</v>
       </c>
       <c r="B601" t="n">
-        <v>2.87185734e-13</v>
+        <v>3.57274836e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>1.070180856e-14</v>
+        <v>1.081997208e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02218</v>
       </c>
       <c r="B602" t="n">
-        <v>3.05376444e-13</v>
+        <v>2.94740766e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>1.012630608e-14</v>
+        <v>9.92253168e-15</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02247</v>
       </c>
       <c r="B603" t="n">
-        <v>3.02278176e-13</v>
+        <v>2.83118256e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>1.08027666e-14</v>
+        <v>8.09537058e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02586</v>
       </c>
       <c r="B604" t="n">
-        <v>2.9278953e-13</v>
+        <v>2.39473368e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.173429756e-14</v>
+        <v>8.837673300000001e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02634</v>
       </c>
       <c r="B605" t="n">
-        <v>3.00234024e-13</v>
+        <v>2.326280220000001e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>1.13132439e-14</v>
+        <v>8.10506268e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.02991</v>
       </c>
       <c r="B606" t="n">
-        <v>3.22477794e-13</v>
+        <v>2.14525422e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>6.8884398e-15</v>
+        <v>8.32082004e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03034</v>
       </c>
       <c r="B607" t="n">
-        <v>3.19309038e-13</v>
+        <v>2.22748488e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>6.52680432e-15</v>
+        <v>7.19304408e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03203</v>
       </c>
       <c r="B608" t="n">
-        <v>3.2879448e-13</v>
+        <v>2.4913503e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>6.78658464e-15</v>
+        <v>6.81968196e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03244</v>
       </c>
       <c r="B609" t="n">
-        <v>3.16954098e-13</v>
+        <v>2.75467104e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>6.74523702e-15</v>
+        <v>8.130951e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.033</v>
       </c>
       <c r="B610" t="n">
-        <v>3.00363786e-13</v>
+        <v>2.73799422e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>7.826987519999999e-15</v>
+        <v>9.435027060000001e-15</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0335</v>
       </c>
       <c r="B611" t="n">
-        <v>2.88452916e-13</v>
+        <v>5.309540639999999e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>6.25464054e-15</v>
+        <v>1.053313398e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.0336</v>
       </c>
       <c r="B612" t="n">
-        <v>3.0904983e-13</v>
+        <v>3.20154894e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>6.65624592e-15</v>
+        <v>9.75047688e-15</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03367</v>
       </c>
       <c r="B613" t="n">
-        <v>3.07345302e-13</v>
+        <v>7.90172082e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>6.7761396e-15</v>
+        <v>1.228588218e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03399</v>
       </c>
       <c r="B614" t="n">
-        <v>2.71316322e-13</v>
+        <v>4.0962339e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>6.40873692e-15</v>
+        <v>9.403611839999999e-15</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03401</v>
       </c>
       <c r="B615" t="n">
-        <v>2.68443936e-13</v>
+        <v>2.26248858e-12</v>
       </c>
       <c r="C615" t="n">
-        <v>6.5194992e-15</v>
+        <v>2.18956554e-14</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03423</v>
       </c>
       <c r="B616" t="n">
-        <v>2.68059456e-13</v>
+        <v>1.206424548e-12</v>
       </c>
       <c r="C616" t="n">
-        <v>6.3648261e-15</v>
+        <v>1.209328974e-14</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03432</v>
       </c>
       <c r="B617" t="n">
-        <v>2.72399274e-13</v>
+        <v>6.041366280000001e-13</v>
       </c>
       <c r="C617" t="n">
-        <v>7.33232196e-15</v>
+        <v>9.186620939999999e-15</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03444</v>
       </c>
       <c r="B618" t="n">
-        <v>2.579059800000001e-13</v>
+        <v>1.95381522e-12</v>
       </c>
       <c r="C618" t="n">
-        <v>5.94676818e-15</v>
+        <v>1.360053144e-14</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03452</v>
       </c>
       <c r="B619" t="n">
-        <v>2.48169024e-13</v>
+        <v>9.265070880000002e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>6.65989848e-15</v>
+        <v>1.44123129e-14</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03483</v>
       </c>
       <c r="B620" t="n">
-        <v>2.43238068e-13</v>
+        <v>1.69084692e-12</v>
       </c>
       <c r="C620" t="n">
-        <v>6.75854964e-15</v>
+        <v>2.29564998e-14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03488</v>
       </c>
       <c r="B621" t="n">
-        <v>2.36798028e-13</v>
+        <v>1.21566969e-12</v>
       </c>
       <c r="C621" t="n">
-        <v>6.78978864e-15</v>
+        <v>1.337354406e-14</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03505</v>
       </c>
       <c r="B622" t="n">
-        <v>2.50134678e-13</v>
+        <v>2.33767044e-12</v>
       </c>
       <c r="C622" t="n">
-        <v>7.186379759999999e-15</v>
+        <v>2.69163234e-14</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03594</v>
       </c>
       <c r="B623" t="n">
-        <v>2.9552094e-13</v>
+        <v>9.866525760000003e-13</v>
       </c>
       <c r="C623" t="n">
-        <v>6.86490642e-15</v>
+        <v>1.68277284e-14</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03698</v>
       </c>
       <c r="B624" t="n">
-        <v>3.66928488e-13</v>
+        <v>4.58694252e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>6.93108504e-15</v>
+        <v>1.185459174e-14</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03799</v>
       </c>
       <c r="B625" t="n">
-        <v>7.49494098e-13</v>
+        <v>3.60635832e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>1.094233284e-14</v>
+        <v>1.105426458e-14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03879</v>
       </c>
       <c r="B626" t="n">
-        <v>1.063683144e-12</v>
+        <v>3.3924753e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>1.063574208e-14</v>
+        <v>7.536657060000001e-15</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.03898</v>
       </c>
       <c r="B627" t="n">
-        <v>1.85027796e-12</v>
+        <v>3.343197780000001e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>1.66093758e-14</v>
+        <v>1.083926016e-14</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04002</v>
       </c>
       <c r="B628" t="n">
-        <v>3.11153256e-12</v>
+        <v>3.3719697e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>2.22687612e-14</v>
+        <v>8.558284500000001e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04202</v>
       </c>
       <c r="B629" t="n">
-        <v>4.354155900000001e-12</v>
+        <v>3.294513e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>2.34170748e-14</v>
+        <v>9.754417799999999e-15</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04296</v>
       </c>
       <c r="B630" t="n">
-        <v>4.42094328e-12</v>
+        <v>3.45450474e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>2.44840068e-14</v>
+        <v>7.88557266e-15</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04591</v>
       </c>
       <c r="B631" t="n">
-        <v>3.58444296e-12</v>
+        <v>3.23990082e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>2.46416436e-14</v>
+        <v>1.102070268e-14</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04695</v>
       </c>
       <c r="B632" t="n">
-        <v>2.82546342e-12</v>
+        <v>2.815515e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>2.05334748e-14</v>
+        <v>8.30704284e-15</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.04891</v>
       </c>
       <c r="B633" t="n">
-        <v>1.8773037e-12</v>
+        <v>2.55299526e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>1.82815434e-14</v>
+        <v>7.7714622e-15</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05</v>
       </c>
       <c r="B634" t="n">
-        <v>1.421148618e-12</v>
+        <v>2.41078572e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>1.566498078e-14</v>
+        <v>9.257285159999999e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.0529</v>
       </c>
       <c r="B635" t="n">
-        <v>8.84613186e-13</v>
+        <v>2.30160942e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>1.192471128e-14</v>
+        <v>7.594489260000002e-15</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05401</v>
       </c>
       <c r="B636" t="n">
-        <v>6.979145039999999e-13</v>
+        <v>2.11483224e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>1.181633598e-14</v>
+        <v>9.063667439999999e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05694</v>
       </c>
       <c r="B637" t="n">
-        <v>5.55970896e-13</v>
+        <v>2.19488418e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>1.03645395e-14</v>
+        <v>8.140002299999999e-15</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05801</v>
       </c>
       <c r="B638" t="n">
-        <v>4.51895364e-13</v>
+        <v>2.06491392e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>9.91064484e-15</v>
+        <v>8.829358919999999e-15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.05997</v>
       </c>
       <c r="B639" t="n">
-        <v>4.199146380000001e-13</v>
+        <v>2.19975426e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>9.94896468e-15</v>
+        <v>8.6624145e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06048</v>
       </c>
       <c r="B640" t="n">
-        <v>3.74802318e-13</v>
+        <v>2.413829520000001e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>7.696536660000002e-15</v>
+        <v>9.822470760000001e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06094</v>
       </c>
       <c r="B641" t="n">
-        <v>3.38105304e-13</v>
+        <v>2.79617886e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>1.15105302e-14</v>
+        <v>7.18626762e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06096</v>
       </c>
       <c r="B642" t="n">
-        <v>3.14858682e-13</v>
+        <v>2.6831898e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>8.937942480000001e-15</v>
+        <v>1.04645043e-14</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.0613</v>
       </c>
       <c r="B643" t="n">
-        <v>3.2133717e-13</v>
+        <v>2.77158816e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>8.884083239999999e-15</v>
+        <v>1.044508806e-14</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06147</v>
       </c>
       <c r="B644" t="n">
-        <v>3.23504676e-13</v>
+        <v>2.577618e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>8.655557940000001e-15</v>
+        <v>1.028554488e-14</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06178</v>
       </c>
       <c r="B645" t="n">
-        <v>3.299591340000001e-13</v>
+        <v>2.80697634e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>8.586591839999999e-15</v>
+        <v>1.114178184e-14</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.062</v>
       </c>
       <c r="B646" t="n">
-        <v>3.24449856e-13</v>
+        <v>2.82030498e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>9.3883608e-15</v>
+        <v>1.088683956e-14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06227</v>
       </c>
       <c r="B647" t="n">
-        <v>3.14813826e-13</v>
+        <v>2.87185734e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>7.93241514e-15</v>
+        <v>1.070180856e-14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06258</v>
       </c>
       <c r="B648" t="n">
-        <v>2.9835648e-13</v>
+        <v>3.05376444e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>7.774954559999999e-15</v>
+        <v>1.012630608e-14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.0628</v>
       </c>
       <c r="B649" t="n">
-        <v>3.17196e-13</v>
+        <v>3.02278176e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>7.79216004e-15</v>
+        <v>1.08027666e-14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06292</v>
       </c>
       <c r="B650" t="n">
-        <v>3.13160562e-13</v>
+        <v>3.155443380000001e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>7.830575999999999e-15</v>
+        <v>7.78517532e-15</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06312</v>
       </c>
       <c r="B651" t="n">
-        <v>3.3957594e-13</v>
+        <v>2.9278953e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>8.72202492e-15</v>
+        <v>1.173429756e-14</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06324</v>
       </c>
       <c r="B652" t="n">
-        <v>3.08141496e-13</v>
+        <v>3.00234024e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>8.136029339999999e-15</v>
+        <v>1.13132439e-14</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06353</v>
       </c>
       <c r="B653" t="n">
-        <v>3.19642254e-13</v>
+        <v>3.22477794e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>8.356464539999999e-15</v>
+        <v>6.8884398e-15</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06375</v>
       </c>
       <c r="B654" t="n">
-        <v>3.17650968e-13</v>
+        <v>3.19309038e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>8.184682080000001e-15</v>
+        <v>6.52680432e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06389</v>
       </c>
       <c r="B655" t="n">
-        <v>3.22126956e-13</v>
+        <v>3.06957618e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>1.068119082e-14</v>
+        <v>9.088322220000001e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06404</v>
       </c>
       <c r="B656" t="n">
-        <v>3.45245418e-13</v>
+        <v>3.2879448e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>8.822726639999999e-15</v>
+        <v>6.78658464e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06418</v>
       </c>
       <c r="B657" t="n">
-        <v>3.48396552e-13</v>
+        <v>3.16954098e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>1.06217406e-14</v>
+        <v>6.74523702e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06445</v>
       </c>
       <c r="B658" t="n">
-        <v>3.83835996e-13</v>
+        <v>3.00363786e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>8.535680280000001e-15</v>
+        <v>7.826987519999999e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06455</v>
       </c>
       <c r="B659" t="n">
-        <v>4.48494318e-13</v>
+        <v>2.71316322e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>1.035914076e-14</v>
+        <v>9.17595162e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06481</v>
       </c>
       <c r="B660" t="n">
-        <v>6.18767694e-13</v>
+        <v>2.88452916e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>1.12598172e-14</v>
+        <v>6.25464054e-15</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06486</v>
       </c>
       <c r="B661" t="n">
-        <v>6.788218680000001e-13</v>
+        <v>2.6589195e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>1.310176476e-14</v>
+        <v>9.0790146e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06498</v>
       </c>
       <c r="B662" t="n">
-        <v>9.322278299999998e-13</v>
+        <v>3.0904983e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>1.275326568e-14</v>
+        <v>6.65624592e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06532</v>
       </c>
       <c r="B663" t="n">
-        <v>1.443624677999999e-12</v>
+        <v>3.07345302e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>1.7060499e-14</v>
+        <v>6.7761396e-15</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06547</v>
       </c>
       <c r="B664" t="n">
-        <v>1.713339e-12</v>
+        <v>2.71316322e-13</v>
       </c>
       <c r="C664" t="n">
-        <v>1.87381134e-14</v>
+        <v>6.40873692e-15</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06583</v>
       </c>
       <c r="B665" t="n">
-        <v>1.8736992e-12</v>
+        <v>2.68443936e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>1.9413837e-14</v>
+        <v>6.5194992e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06603</v>
       </c>
       <c r="B666" t="n">
-        <v>1.76533992e-12</v>
+        <v>2.68059456e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>2.0250882e-14</v>
+        <v>6.3648261e-15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.0662</v>
       </c>
       <c r="B667" t="n">
-        <v>1.44141552e-12</v>
+        <v>2.72399274e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>1.87400358e-14</v>
+        <v>7.33232196e-15</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06658</v>
       </c>
       <c r="B668" t="n">
-        <v>9.06826518e-13</v>
+        <v>2.579059800000001e-13</v>
       </c>
       <c r="C668" t="n">
-        <v>1.353976758e-14</v>
+        <v>5.94676818e-15</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06707</v>
       </c>
       <c r="B669" t="n">
-        <v>6.474483e-13</v>
+        <v>2.48169024e-13</v>
       </c>
       <c r="C669" t="n">
-        <v>1.125992934e-14</v>
+        <v>6.65989848e-15</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06758</v>
       </c>
       <c r="B670" t="n">
-        <v>4.832737380000001e-13</v>
+        <v>2.43238068e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>1.086154398e-14</v>
+        <v>6.75854964e-15</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06787</v>
       </c>
       <c r="B671" t="n">
-        <v>4.35372336e-13</v>
+        <v>2.36798028e-13</v>
       </c>
       <c r="C671" t="n">
-        <v>8.734953059999999e-15</v>
+        <v>6.78978864e-15</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06913</v>
       </c>
       <c r="B672" t="n">
-        <v>4.01876118e-13</v>
+        <v>2.50134678e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>8.878684499999999e-15</v>
+        <v>7.186379759999999e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.06998</v>
       </c>
       <c r="B673" t="n">
-        <v>3.76264944e-13</v>
+        <v>2.9552094e-13</v>
       </c>
       <c r="C673" t="n">
-        <v>8.9610273e-15</v>
+        <v>6.86490642e-15</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07042</v>
       </c>
       <c r="B674" t="n">
-        <v>3.61757232e-13</v>
+        <v>4.19092812e-13</v>
       </c>
       <c r="C674" t="n">
-        <v>9.891901439999999e-15</v>
+        <v>9.7923051e-15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07095</v>
       </c>
       <c r="B675" t="n">
-        <v>3.67972992e-13</v>
+        <v>3.66928488e-13</v>
       </c>
       <c r="C675" t="n">
-        <v>9.824313060000001e-15</v>
+        <v>6.93108504e-15</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07097</v>
       </c>
       <c r="B676" t="n">
-        <v>3.41781894e-13</v>
+        <v>6.04879956e-13</v>
       </c>
       <c r="C676" t="n">
-        <v>1.015847424e-14</v>
+        <v>1.14802524e-14</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07192</v>
       </c>
       <c r="B677" t="n">
-        <v>3.4558344e-13</v>
+        <v>1.69951374e-12</v>
       </c>
       <c r="C677" t="n">
-        <v>1.09287639e-14</v>
+        <v>2.99780658e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07204</v>
       </c>
       <c r="B678" t="n">
-        <v>3.66941304e-13</v>
+        <v>2.51035002e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>1.064597886e-14</v>
+        <v>3.07750608e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07209</v>
       </c>
       <c r="B679" t="n">
-        <v>3.76609374e-13</v>
+        <v>7.49494098e-13</v>
       </c>
       <c r="C679" t="n">
-        <v>1.088637498e-14</v>
+        <v>1.094233284e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07241</v>
       </c>
       <c r="B680" t="n">
-        <v>4.36631508e-13</v>
+        <v>4.20874236e-12</v>
       </c>
       <c r="C680" t="n">
-        <v>1.107212688e-14</v>
+        <v>5.2915662e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07245</v>
       </c>
       <c r="B681" t="n">
-        <v>4.51281798e-13</v>
+        <v>1.063683144e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>1.134091044e-14</v>
+        <v>1.063574208e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.0726</v>
       </c>
       <c r="B682" t="n">
-        <v>3.67742304e-13</v>
+        <v>4.61002734e-12</v>
       </c>
       <c r="C682" t="n">
-        <v>8.38901718e-15</v>
+        <v>3.3774165e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07279</v>
       </c>
       <c r="B683" t="n">
-        <v>3.57755436e-13</v>
+        <v>1.85027796e-12</v>
       </c>
       <c r="C683" t="n">
-        <v>8.53619292e-15</v>
+        <v>1.66093758e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07292</v>
       </c>
       <c r="B684" t="n">
-        <v>2.96889048e-13</v>
+        <v>3.9747222e-12</v>
       </c>
       <c r="C684" t="n">
-        <v>7.452391859999999e-15</v>
+        <v>2.865978e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B685" t="n">
-        <v>2.545578e-13</v>
+        <v>3.27038688e-12</v>
       </c>
       <c r="C685" t="n">
-        <v>9.129814019999998e-15</v>
+        <v>2.92464324e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07309</v>
       </c>
       <c r="B686" t="n">
-        <v>2.17218384e-13</v>
+        <v>3.11153256e-12</v>
       </c>
       <c r="C686" t="n">
-        <v>8.249563079999999e-15</v>
+        <v>2.22687612e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07328</v>
       </c>
       <c r="B687" t="n">
-        <v>2.05619904e-13</v>
+        <v>4.354155900000001e-12</v>
       </c>
       <c r="C687" t="n">
-        <v>7.201406519999999e-15</v>
+        <v>2.34170748e-14</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.0734</v>
       </c>
       <c r="B688" t="n">
-        <v>2.14424496e-13</v>
+        <v>2.822035139999999e-12</v>
       </c>
       <c r="C688" t="n">
-        <v>7.675438320000001e-15</v>
+        <v>2.80692828e-14</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07362</v>
       </c>
       <c r="B689" t="n">
-        <v>2.14618338e-13</v>
+        <v>4.42094328e-12</v>
       </c>
       <c r="C689" t="n">
-        <v>5.898371759999999e-15</v>
+        <v>2.44840068e-14</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07374</v>
       </c>
       <c r="B690" t="n">
-        <v>2.3899437e-13</v>
+        <v>2.0991006e-12</v>
       </c>
       <c r="C690" t="n">
-        <v>7.80652998e-15</v>
+        <v>2.3761665e-14</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07384</v>
       </c>
       <c r="B691" t="n">
-        <v>3.063248280000001e-13</v>
+        <v>3.58444296e-12</v>
       </c>
       <c r="C691" t="n">
-        <v>1.034746218e-14</v>
+        <v>2.46416436e-14</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07398</v>
       </c>
       <c r="B692" t="n">
-        <v>8.699276519999998e-13</v>
+        <v>1.403212626e-12</v>
       </c>
       <c r="C692" t="n">
-        <v>1.26606861e-14</v>
+        <v>1.470554298e-14</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07401</v>
       </c>
       <c r="B693" t="n">
-        <v>3.406156380000001e-13</v>
+        <v>2.82546342e-12</v>
       </c>
       <c r="C693" t="n">
-        <v>5.96970882e-15</v>
+        <v>2.05334748e-14</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.0743</v>
       </c>
       <c r="B694" t="n">
-        <v>2.604916079999999e-13</v>
+        <v>1.8773037e-12</v>
       </c>
       <c r="C694" t="n">
-        <v>7.507212300000001e-15</v>
+        <v>1.82815434e-14</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B695" t="n">
-        <v>2.67716628e-13</v>
+        <v>1.421148618e-12</v>
       </c>
       <c r="C695" t="n">
-        <v>6.5725254e-15</v>
+        <v>1.566498078e-14</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07452</v>
       </c>
       <c r="B696" t="n">
-        <v>2.48135382e-13</v>
+        <v>8.80829262e-13</v>
       </c>
       <c r="C696" t="n">
-        <v>5.505657480000001e-15</v>
+        <v>1.464079014e-14</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07491</v>
       </c>
       <c r="B697" t="n">
-        <v>2.61480042e-13</v>
+        <v>6.525026100000001e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>5.66151606e-15</v>
+        <v>1.318572558e-14</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07505</v>
       </c>
       <c r="B698" t="n">
-        <v>2.61159642e-13</v>
+        <v>8.84613186e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>7.766864459999999e-15</v>
+        <v>1.192471128e-14</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07537</v>
       </c>
       <c r="B699" t="n">
-        <v>2.85437952e-13</v>
+        <v>6.979145039999999e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>7.68684456e-15</v>
+        <v>1.181633598e-14</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.0759</v>
       </c>
       <c r="B700" t="n">
-        <v>3.1073193e-13</v>
+        <v>4.43077956e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.3006344e-15</v>
+        <v>1.03927347e-14</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07593</v>
       </c>
       <c r="B701" t="n">
-        <v>3.78491724e-13</v>
+        <v>5.55970896e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>8.51469408e-15</v>
+        <v>1.03645395e-14</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07644</v>
       </c>
       <c r="B702" t="n">
-        <v>5.61162978e-13</v>
+        <v>4.51895364e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>1.12606983e-14</v>
+        <v>9.91064484e-15</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07697</v>
       </c>
       <c r="B703" t="n">
-        <v>6.55453494e-13</v>
+        <v>4.199146380000001e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>9.718677180000002e-15</v>
+        <v>9.94896468e-15</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07784</v>
       </c>
       <c r="B704" t="n">
-        <v>7.85146608e-13</v>
+        <v>3.50480754e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>1.32003999e-14</v>
+        <v>8.86391406e-15</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.07801</v>
       </c>
       <c r="B705" t="n">
-        <v>8.74701612e-13</v>
+        <v>3.74802318e-13</v>
       </c>
       <c r="C705" t="n">
-        <v>1.226801988e-14</v>
+        <v>7.696536660000002e-15</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08001</v>
       </c>
       <c r="B706" t="n">
-        <v>9.221544540000001e-13</v>
+        <v>3.38105304e-13</v>
       </c>
       <c r="C706" t="n">
-        <v>1.67218362e-14</v>
+        <v>1.15105302e-14</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0819</v>
       </c>
       <c r="B707" t="n">
-        <v>3.12428448e-13</v>
+        <v>3.3542676e-13</v>
       </c>
       <c r="C707" t="n">
-        <v>6.244211519999999e-15</v>
+        <v>1.192028976e-14</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B708" t="n">
-        <v>3.97563534e-13</v>
+        <v>3.14858682e-13</v>
       </c>
       <c r="C708" t="n">
-        <v>1.041647634e-14</v>
+        <v>8.937942480000001e-15</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.0829</v>
       </c>
       <c r="B709" t="n">
-        <v>1.98412506e-13</v>
+        <v>3.2133717e-13</v>
       </c>
       <c r="C709" t="n">
-        <v>3.40247178e-15</v>
+        <v>8.884083239999999e-15</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08356</v>
       </c>
       <c r="B710" t="n">
-        <v>1.64344374e-13</v>
+        <v>3.23504676e-13</v>
       </c>
       <c r="C710" t="n">
-        <v>4.4718228e-15</v>
+        <v>8.655557940000001e-15</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08506</v>
       </c>
       <c r="B711" t="n">
-        <v>1.406929266e-13</v>
+        <v>3.299591340000001e-13</v>
       </c>
       <c r="C711" t="n">
-        <v>7.70510736e-15</v>
+        <v>8.586591839999999e-15</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08579</v>
       </c>
       <c r="B712" t="n">
-        <v>1.433118762e-13</v>
+        <v>3.1066785e-13</v>
       </c>
       <c r="C712" t="n">
-        <v>8.56027098e-15</v>
+        <v>8.219974139999999e-15</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08604</v>
       </c>
       <c r="B713" t="n">
-        <v>1.37375505e-13</v>
+        <v>3.24449856e-13</v>
       </c>
       <c r="C713" t="n">
-        <v>8.08007148e-15</v>
+        <v>9.3883608e-15</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08798</v>
       </c>
       <c r="B714" t="n">
-        <v>1.331132238e-13</v>
+        <v>3.14813826e-13</v>
       </c>
       <c r="C714" t="n">
-        <v>8.1627507e-15</v>
+        <v>7.93241514e-15</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08898</v>
       </c>
       <c r="B715" t="n">
-        <v>1.308375828e-13</v>
+        <v>2.9835648e-13</v>
       </c>
       <c r="C715" t="n">
-        <v>5.580502919999999e-15</v>
+        <v>7.774954559999999e-15</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B716" t="n">
+        <v>2.92618116e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>7.404476039999999e-15</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.17196e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>7.79216004e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.13160562e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>7.830575999999999e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.3957594e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>8.72202492e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.08141496e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>8.136029339999999e-15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.26061468e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>8.00149338e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.19642254e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>8.356464539999999e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.17650968e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>8.184682080000001e-15</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.22126956e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.068119082e-14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.30359634e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>8.533453500000001e-15</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.45245418e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>8.822726639999999e-15</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3.65874372e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>7.319666160000001e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4.17902526e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>8.12040984e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3.48396552e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.06217406e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B730" t="n">
+        <v>3.83835996e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>8.535680280000001e-15</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.7256597e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.087508088e-14</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B732" t="n">
+        <v>6.9056613e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>2.05917876e-14</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4.48494318e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.035914076e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B734" t="n">
+        <v>8.664000480000001e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.284305778e-14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B735" t="n">
+        <v>6.18767694e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.12598172e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B736" t="n">
+        <v>6.788218680000001e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.310176476e-14</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B737" t="n">
+        <v>9.322278299999998e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.275326568e-14</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1.443624677999999e-12</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.7060499e-14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.713339e-12</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.87381134e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.8736992e-12</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.9413837e-14</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.76533992e-12</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2.0250882e-14</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1.44141552e-12</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1.87400358e-14</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B743" t="n">
+        <v>9.06826518e-13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.353976758e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B744" t="n">
+        <v>6.474483e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.125992934e-14</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4.832737380000001e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.086154398e-14</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B746" t="n">
+        <v>3.83089464e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>8.651264580000001e-15</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4.35372336e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>8.734953059999999e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.01876118e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>8.878684499999999e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B749" t="n">
+        <v>3.76264944e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>8.9610273e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B750" t="n">
+        <v>3.61757232e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>9.891901439999999e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B751" t="n">
+        <v>3.67972992e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>9.824313060000001e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B752" t="n">
+        <v>3.41781894e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.015847424e-14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.4558344e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1.09287639e-14</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.2645556e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>8.5570029e-15</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B755" t="n">
+        <v>3.66941304e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1.064597886e-14</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.4142625e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>8.8146045e-15</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B757" t="n">
+        <v>3.76609374e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1.088637498e-14</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B758" t="n">
+        <v>3.93646644e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>9.384772319999999e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B759" t="n">
+        <v>4.36631508e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1.107212688e-14</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B760" t="n">
+        <v>4.25720286e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>8.492105880000001e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.51281798e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1.134091044e-14</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B762" t="n">
+        <v>4.4033373e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.062613008e-14</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B763" t="n">
+        <v>4.33041426e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>9.75520278e-15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B764" t="n">
+        <v>4.24683792e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>9.167605200000001e-15</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4.0101264e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.240608024e-14</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B766" t="n">
+        <v>3.67742304e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>8.38901718e-15</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B767" t="n">
+        <v>3.43995858e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>9.5422329e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B768" t="n">
+        <v>3.57755436e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>8.53619292e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2.8488366e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>8.890891739999999e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.96889048e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>7.452391859999999e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.72280726e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>7.35912342e-15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.51155152e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>8.854638479999999e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.545578e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>9.129814019999998e-15</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.16460638e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>8.32325508e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.17218384e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>8.249563079999999e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.1111957e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>8.457406559999999e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1.9626102e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>8.93380932e-15</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.09479122e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1.169029062e-14</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.16281214e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>5.59323882e-15</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.05619904e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>7.201406519999999e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.14424496e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7.675438320000001e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.35727892e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1.082924766e-14</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.14618338e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>5.898371759999999e-15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.3899437e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>7.80652998e-15</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.6714151e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>1.282734216e-14</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.83879206e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1.116352098e-14</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B787" t="n">
+        <v>6.184857419999999e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.61504028e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1.201040226e-12</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.99931202e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B789" t="n">
+        <v>3.063248280000001e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1.034746218e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B790" t="n">
+        <v>9.38642238e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.76344956e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B791" t="n">
+        <v>8.699276519999998e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.26606861e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B792" t="n">
+        <v>3.406156380000001e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>5.96970882e-15</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B793" t="n">
+        <v>3.4924401e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1.275900084e-14</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2.604916079999999e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>7.507212300000001e-15</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2.60363448e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1.044829206e-14</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.67716628e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>6.5725254e-15</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2.72674818e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1.285225326e-14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2.48135382e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>5.505657480000001e-15</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.62173708e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.185093918e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B800" t="n">
+        <v>2.61480042e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>5.66151606e-15</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B801" t="n">
+        <v>2.60619768e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1.20636207e-14</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B802" t="n">
+        <v>2.61159642e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>7.766864459999999e-15</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.799495e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.263287538e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B804" t="n">
+        <v>2.85437952e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>7.68684456e-15</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B805" t="n">
+        <v>3.0422781e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1.229136102e-14</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B806" t="n">
+        <v>3.1073193e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>7.3006344e-15</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.1413618e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.247834646e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.72311208e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.344111642e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B809" t="n">
+        <v>3.78491724e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>8.51469408e-15</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B810" t="n">
+        <v>4.19648706e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1.36463967e-14</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B811" t="n">
+        <v>5.043112019999999e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.479541518e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B812" t="n">
+        <v>5.61162978e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.12606983e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B813" t="n">
+        <v>5.73477552e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.570684104e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B814" t="n">
+        <v>6.55453494e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>9.718677180000002e-15</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B815" t="n">
+        <v>7.2158085e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.71075978e-14</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B816" t="n">
+        <v>8.10950022e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.69438734e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B817" t="n">
+        <v>7.85146608e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.32003999e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B818" t="n">
+        <v>8.48212542e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.792638e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B819" t="n">
+        <v>9.801596700000001e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.93944528e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1.088667936e-12</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.96943472e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B821" t="n">
+        <v>8.74701612e-13</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1.226801988e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1.006602282e-12</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1.9734237e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1.01027727e-12</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1.95472836e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B824" t="n">
+        <v>9.221544540000001e-13</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1.67218362e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B825" t="n">
+        <v>9.567864899999999e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1.93923702e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B826" t="n">
+        <v>9.029913299999998e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1.89958752e-14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B827" t="n">
+        <v>8.03246004e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1.595550348e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B828" t="n">
+        <v>6.88172742e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1.72256652e-14</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B829" t="n">
+        <v>5.864104980000001e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1.57719303e-14</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B830" t="n">
+        <v>4.75891722e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1.434095982e-14</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.12428448e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>6.244211519999999e-15</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.97563534e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1.041647634e-14</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B833" t="n">
+        <v>4.13150994e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1.371557106e-14</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.497166e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1.220977116e-14</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.11504094e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1.273548348e-14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B836" t="n">
+        <v>2.49048522e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1.072729638e-14</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B837" t="n">
+        <v>2.0686626e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.001863566e-14</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2.0177991e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>9.228369059999999e-15</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1.98412506e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.40247178e-15</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.86814026e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>9.819378900000001e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1.76711814e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>9.00453762e-15</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1.64344374e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>4.4718228e-15</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.7559522e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>8.405085239999999e-15</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.354377258e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>9.748538460000001e-15</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1.429365276e-13</v>
+      </c>
+      <c r="C845" t="n">
+        <v>8.46910116e-15</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1.406929266e-13</v>
+      </c>
+      <c r="C846" t="n">
+        <v>7.70510736e-15</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.433118762e-13</v>
+      </c>
+      <c r="C847" t="n">
+        <v>8.56027098e-15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1.55617479e-13</v>
+      </c>
+      <c r="C848" t="n">
+        <v>9.58865886e-15</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1.37375505e-13</v>
+      </c>
+      <c r="C849" t="n">
+        <v>8.08007148e-15</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1.149364512e-13</v>
+      </c>
+      <c r="C850" t="n">
+        <v>9.131464080000001e-15</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1.213697628e-13</v>
+      </c>
+      <c r="C851" t="n">
+        <v>8.190289080000001e-15</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1.331132238e-13</v>
+      </c>
+      <c r="C852" t="n">
+        <v>8.1627507e-15</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1.308375828e-13</v>
+      </c>
+      <c r="C853" t="n">
+        <v>5.580502919999999e-15</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1.203281424e-13</v>
+      </c>
+      <c r="C854" t="n">
+        <v>8.397299519999999e-15</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B716" t="n">
+      <c r="B855" t="n">
         <v>1.230702858e-13</v>
       </c>
-      <c r="C716" t="n">
+      <c r="C855" t="n">
         <v>8.757509219999999e-15</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1.121925456e-13</v>
+      </c>
+      <c r="C856" t="n">
+        <v>9.393551280000001e-15</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1.106209836e-13</v>
+      </c>
+      <c r="C857" t="n">
+        <v>6.582537899999999e-15</v>
       </c>
     </row>
   </sheetData>
